--- a/biology/Médecine/Ibn_al-Akfani/Ibn_al-Akfani.xlsx
+++ b/biology/Médecine/Ibn_al-Akfani/Ibn_al-Akfani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muhammad ibn Ibrāhīm ibn al-Akfani est un encyclopédiste et médecin arabe du XIVe siècle. Il est notamment connu pour son encyclopédie, le Iršād al-qāsid ilā asnā 'al-maqāsid[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muhammad ibn Ibrāhīm ibn al-Akfani est un encyclopédiste et médecin arabe du XIVe siècle. Il est notamment connu pour son encyclopédie, le Iršād al-qāsid ilā asnā 'al-maqāsid.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ibn al-Akfani est né en 1286 à Sinjar, en Irak et a vécu une grande partie de sa vie au Caire, en Égypte. Il a travaillé à l'hôpital Al-Mansuri. Il est mort en 1348 ou 1349 de la peste bubonique[1].
-Il a écrit plusieurs ouvrages, au minimum 22 livres[2], dont la plupart étaient liés à la science dont des ouvrages concernant la logique, la gemmologie, les mathématiques, l'astronomie, la médecine en général et l'ophtalmologie[1],[3].
-Son œuvre la plus célèbre est une encyclopédie scientifique appelée Iršād al-qāsid ilā asnā 'al-maqāsid, où il examine 60 sujets avec des bibliographies et un glossaire de termes[2]. Un autre de ses ouvrages, le Kitāb nuhab al-dahā'ir fī ahwāl al-jawāhir, traite des pierres précieuses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ibn al-Akfani est né en 1286 à Sinjar, en Irak et a vécu une grande partie de sa vie au Caire, en Égypte. Il a travaillé à l'hôpital Al-Mansuri. Il est mort en 1348 ou 1349 de la peste bubonique.
+Il a écrit plusieurs ouvrages, au minimum 22 livres, dont la plupart étaient liés à la science dont des ouvrages concernant la logique, la gemmologie, les mathématiques, l'astronomie, la médecine en général et l'ophtalmologie,.
+Son œuvre la plus célèbre est une encyclopédie scientifique appelée Iršād al-qāsid ilā asnā 'al-maqāsid, où il examine 60 sujets avec des bibliographies et un glossaire de termes. Un autre de ses ouvrages, le Kitāb nuhab al-dahā'ir fī ahwāl al-jawāhir, traite des pierres précieuses.
 </t>
         </is>
       </c>
